--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43061,6 +43061,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43098,6 +43098,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>61200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43133,6 +43133,43 @@
         <v>61200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43170,6 +43170,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>404500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>404500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>114800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>114800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>161300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,43 @@
         <v>161300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43347,6 +43347,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>185000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43382,6 +43382,41 @@
         <v>185000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>480000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43417,6 +43417,41 @@
         <v>480000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43452,6 +43452,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>350000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43487,6 +43487,76 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>280200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>210000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43557,6 +43557,76 @@
         <v>210000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>398200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>103000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,41 @@
         <v>103000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>508800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43662,6 +43662,43 @@
         <v>508800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43734,6 +43734,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>736700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43769,6 +43769,76 @@
         <v>736700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>420000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43839,6 +43839,41 @@
         <v>420000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>402000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2324"/>
+  <dimension ref="A1:I2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81814,6 +81814,41 @@
         <v>402000</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>508000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2325"/>
+  <dimension ref="A1:I2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81849,6 +81849,41 @@
         <v>508000</v>
       </c>
     </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>323000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81884,6 +81884,41 @@
         <v>323000</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2327"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81919,6 +81919,41 @@
         <v>1300000</v>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>320000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2328"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81954,6 +81954,41 @@
         <v>320000</v>
       </c>
     </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>98000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2329"/>
+  <dimension ref="A1:I2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81989,6 +81989,41 @@
         <v>98000</v>
       </c>
     </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82024,6 +82024,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2331" t="n">
+        <v>22300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82059,6 +82059,41 @@
         <v>22300</v>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>147700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82094,6 +82094,41 @@
         <v>147700</v>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82129,6 +82129,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82166,6 +82166,41 @@
         </is>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>180000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82201,6 +82201,41 @@
         <v>180000</v>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>66000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82236,6 +82236,43 @@
         <v>66000</v>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82273,6 +82273,41 @@
         </is>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>39000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7315.xlsx
+++ b/data/7315.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82308,6 +82308,41 @@
         <v>39000</v>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>AHB</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2339" t="n">
+        <v>451000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
